--- a/BackTest/2019-11-02 BackTest DAC.xlsx
+++ b/BackTest/2019-11-02 BackTest DAC.xlsx
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
@@ -5739,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9449,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
@@ -9484,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
@@ -9519,7 +9519,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
@@ -9554,7 +9554,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
@@ -9624,7 +9624,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
@@ -9694,7 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
@@ -9799,7 +9799,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
@@ -9834,7 +9834,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
@@ -10706,13 +10706,17 @@
         <v>3.678833333333333</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="K295" t="n">
+        <v>3.56</v>
+      </c>
       <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
@@ -10747,12 +10751,16 @@
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="K296" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L296" t="inlineStr"/>
+        <v>3.56</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10789,7 +10797,7 @@
         <v>3.55</v>
       </c>
       <c r="K297" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L297" t="inlineStr">
         <is>
@@ -10829,10 +10837,10 @@
         <v>0</v>
       </c>
       <c r="J298" t="n">
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="K298" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L298" t="inlineStr">
         <is>
@@ -10875,7 +10883,7 @@
         <v>3.55</v>
       </c>
       <c r="K299" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L299" t="inlineStr">
         <is>
@@ -10918,7 +10926,7 @@
         <v>3.55</v>
       </c>
       <c r="K300" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L300" t="inlineStr">
         <is>
@@ -10961,7 +10969,7 @@
         <v>3.57</v>
       </c>
       <c r="K301" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L301" t="inlineStr">
         <is>
@@ -11001,10 +11009,10 @@
         <v>0</v>
       </c>
       <c r="J302" t="n">
-        <v>3.64</v>
+        <v>3.58</v>
       </c>
       <c r="K302" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L302" t="inlineStr">
         <is>
@@ -11038,16 +11046,14 @@
         <v>3.667166666666668</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L303" t="inlineStr">
         <is>
@@ -11081,16 +11087,14 @@
         <v>3.666333333333334</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>3.58</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L304" t="inlineStr">
         <is>
@@ -11124,16 +11128,14 @@
         <v>3.665</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L305" t="inlineStr">
         <is>
@@ -11167,16 +11169,14 @@
         <v>3.663666666666667</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>3.58</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L306" t="inlineStr">
         <is>
@@ -11210,16 +11210,14 @@
         <v>3.662166666666667</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L307" t="inlineStr">
         <is>
@@ -11253,16 +11251,14 @@
         <v>3.660666666666667</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L308" t="inlineStr">
         <is>
@@ -11296,16 +11292,14 @@
         <v>3.659166666666667</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>3.62</v>
-      </c>
+      <c r="J309" t="inlineStr"/>
       <c r="K309" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L309" t="inlineStr">
         <is>
@@ -11339,16 +11333,14 @@
         <v>3.657833333333334</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="J310" t="inlineStr"/>
       <c r="K310" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L310" t="inlineStr">
         <is>
@@ -11389,7 +11381,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L311" t="inlineStr">
         <is>
@@ -11430,7 +11422,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L312" t="inlineStr">
         <is>
@@ -11471,7 +11463,7 @@
       </c>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L313" t="inlineStr">
         <is>
@@ -11505,16 +11497,14 @@
         <v>3.648000000000001</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="n">
         <v>3.56</v>
-      </c>
-      <c r="K314" t="n">
-        <v>3.55</v>
       </c>
       <c r="L314" t="inlineStr">
         <is>
@@ -11548,16 +11538,14 @@
         <v>3.645166666666668</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="n">
         <v>3.56</v>
-      </c>
-      <c r="K315" t="n">
-        <v>3.55</v>
       </c>
       <c r="L315" t="inlineStr">
         <is>
@@ -11591,16 +11579,14 @@
         <v>3.641166666666668</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>3.55</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L316" t="inlineStr">
         <is>
@@ -11634,16 +11620,14 @@
         <v>3.636833333333334</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>3.53</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L317" t="inlineStr">
         <is>
@@ -11677,16 +11661,14 @@
         <v>3.632833333333334</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>3.49</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L318" t="inlineStr">
         <is>
@@ -11720,16 +11702,14 @@
         <v>3.628166666666667</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>3.57</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L319" t="inlineStr">
         <is>
@@ -11763,16 +11743,14 @@
         <v>3.623166666666668</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>3.53</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L320" t="inlineStr">
         <is>
@@ -11806,16 +11784,14 @@
         <v>3.619000000000001</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>3.51</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L321" t="inlineStr">
         <is>
@@ -11849,16 +11825,14 @@
         <v>3.614166666666667</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>3.57</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L322" t="inlineStr">
         <is>
@@ -11892,16 +11866,14 @@
         <v>3.6105</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="n">
         <v>3.56</v>
-      </c>
-      <c r="K323" t="n">
-        <v>3.55</v>
       </c>
       <c r="L323" t="inlineStr">
         <is>
@@ -11935,16 +11907,14 @@
         <v>3.606833333333334</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>3.51</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L324" t="inlineStr">
         <is>
@@ -11978,16 +11948,14 @@
         <v>3.602666666666667</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>3.51</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L325" t="inlineStr">
         <is>
@@ -12021,16 +11989,14 @@
         <v>3.599166666666668</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>3.54</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L326" t="inlineStr">
         <is>
@@ -12064,16 +12030,14 @@
         <v>3.595500000000001</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>3.53</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L327" t="inlineStr">
         <is>
@@ -12107,16 +12071,14 @@
         <v>3.591500000000001</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>3.52</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L328" t="inlineStr">
         <is>
@@ -12150,16 +12112,14 @@
         <v>3.588666666666668</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>3.52</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L329" t="inlineStr">
         <is>
@@ -12193,16 +12153,14 @@
         <v>3.586000000000001</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>3.53</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L330" t="inlineStr">
         <is>
@@ -12236,16 +12194,14 @@
         <v>3.583833333333334</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>3.54</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L331" t="inlineStr">
         <is>
@@ -12279,16 +12235,14 @@
         <v>3.581500000000001</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>3.55</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L332" t="inlineStr">
         <is>
@@ -12322,16 +12276,14 @@
         <v>3.579500000000001</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>3.57</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L333" t="inlineStr">
         <is>
@@ -12365,16 +12317,14 @@
         <v>3.577833333333334</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="n">
         <v>3.56</v>
-      </c>
-      <c r="K334" t="n">
-        <v>3.55</v>
       </c>
       <c r="L334" t="inlineStr">
         <is>
@@ -12408,16 +12358,14 @@
         <v>3.576500000000001</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>3.58</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L335" t="inlineStr">
         <is>
@@ -12451,16 +12399,14 @@
         <v>3.575666666666667</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>3.58</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L336" t="inlineStr">
         <is>
@@ -12494,16 +12440,14 @@
         <v>3.574666666666667</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>3.59</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L337" t="inlineStr">
         <is>
@@ -12537,16 +12481,14 @@
         <v>3.573166666666667</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L338" t="inlineStr">
         <is>
@@ -12580,16 +12522,14 @@
         <v>3.572500000000001</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L339" t="inlineStr">
         <is>
@@ -12623,16 +12563,14 @@
         <v>3.572000000000001</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L340" t="inlineStr">
         <is>
@@ -12666,16 +12604,14 @@
         <v>3.571000000000001</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L341" t="inlineStr">
         <is>
@@ -12709,16 +12645,14 @@
         <v>3.570000000000001</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>3.58</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L342" t="inlineStr">
         <is>
@@ -12752,16 +12686,14 @@
         <v>3.569000000000001</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>3.59</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L343" t="inlineStr">
         <is>
@@ -12795,16 +12727,14 @@
         <v>3.569333333333335</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>3.62</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L344" t="inlineStr">
         <is>
@@ -12838,16 +12768,14 @@
         <v>3.570000000000001</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>3.62</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L345" t="inlineStr">
         <is>
@@ -12881,16 +12809,14 @@
         <v>3.571666666666668</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>3.64</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L346" t="inlineStr">
         <is>
@@ -12924,16 +12850,14 @@
         <v>3.572833333333334</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L347" t="inlineStr">
         <is>
@@ -12967,16 +12891,14 @@
         <v>3.574166666666668</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>3.63</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L348" t="inlineStr">
         <is>
@@ -13010,16 +12932,14 @@
         <v>3.574333333333334</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L349" t="inlineStr">
         <is>
@@ -13060,7 +12980,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L350" t="inlineStr">
         <is>
@@ -13094,16 +13014,14 @@
         <v>3.574833333333335</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L351" t="inlineStr">
         <is>
@@ -13137,16 +13055,14 @@
         <v>3.575166666666668</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L352" t="inlineStr">
         <is>
@@ -13180,16 +13096,14 @@
         <v>3.575500000000001</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L353" t="inlineStr">
         <is>
@@ -13223,16 +13137,14 @@
         <v>3.576333333333335</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>3.62</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L354" t="inlineStr">
         <is>
@@ -13266,16 +13178,14 @@
         <v>3.577333333333335</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L355" t="inlineStr">
         <is>
@@ -13309,16 +13219,14 @@
         <v>3.578500000000001</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>3.62</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L356" t="inlineStr">
         <is>
@@ -13352,16 +13260,14 @@
         <v>3.580666666666668</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
       </c>
-      <c r="J357" t="n">
-        <v>3.61</v>
-      </c>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L357" t="inlineStr">
         <is>
@@ -13395,16 +13301,14 @@
         <v>3.582333333333335</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
       </c>
-      <c r="J358" t="n">
-        <v>3.66</v>
-      </c>
+      <c r="J358" t="inlineStr"/>
       <c r="K358" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L358" t="inlineStr">
         <is>
@@ -13445,7 +13349,7 @@
       </c>
       <c r="J359" t="inlineStr"/>
       <c r="K359" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L359" t="inlineStr">
         <is>
@@ -13486,7 +13390,7 @@
       </c>
       <c r="J360" t="inlineStr"/>
       <c r="K360" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L360" t="inlineStr">
         <is>
@@ -13527,7 +13431,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L361" t="inlineStr">
         <is>
@@ -13568,7 +13472,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L362" t="inlineStr">
         <is>
@@ -13609,7 +13513,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L363" t="inlineStr">
         <is>
@@ -13650,7 +13554,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L364" t="inlineStr">
         <is>
@@ -13691,7 +13595,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L365" t="inlineStr">
         <is>
@@ -13732,7 +13636,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L366" t="inlineStr">
         <is>
@@ -13773,7 +13677,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L367" t="inlineStr">
         <is>
@@ -13814,7 +13718,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L368" t="inlineStr">
         <is>
@@ -13855,7 +13759,7 @@
       </c>
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L369" t="inlineStr">
         <is>
@@ -13896,7 +13800,7 @@
       </c>
       <c r="J370" t="inlineStr"/>
       <c r="K370" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L370" t="inlineStr">
         <is>
@@ -13937,7 +13841,7 @@
       </c>
       <c r="J371" t="inlineStr"/>
       <c r="K371" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L371" t="inlineStr">
         <is>
@@ -13978,7 +13882,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L372" t="inlineStr">
         <is>
@@ -14019,7 +13923,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L373" t="inlineStr">
         <is>
@@ -14060,7 +13964,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L374" t="inlineStr">
         <is>
@@ -14101,7 +14005,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L375" t="inlineStr">
         <is>
@@ -14142,7 +14046,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L376" t="inlineStr">
         <is>
@@ -14183,7 +14087,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L377" t="inlineStr">
         <is>
@@ -14224,7 +14128,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L378" t="inlineStr">
         <is>
@@ -14265,7 +14169,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L379" t="inlineStr">
         <is>
@@ -14306,7 +14210,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L380" t="inlineStr">
         <is>
@@ -14347,7 +14251,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L381" t="inlineStr">
         <is>
@@ -14388,7 +14292,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L382" t="inlineStr">
         <is>
@@ -14429,7 +14333,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L383" t="inlineStr">
         <is>
@@ -14470,7 +14374,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L384" t="inlineStr">
         <is>
@@ -14511,7 +14415,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L385" t="inlineStr">
         <is>
@@ -14552,7 +14456,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L386" t="inlineStr">
         <is>
@@ -14586,16 +14490,14 @@
         <v>3.62</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
       </c>
-      <c r="J387" t="n">
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="n">
         <v>3.56</v>
-      </c>
-      <c r="K387" t="n">
-        <v>3.55</v>
       </c>
       <c r="L387" t="inlineStr">
         <is>
@@ -14629,16 +14531,14 @@
         <v>3.6215</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
       </c>
-      <c r="J388" t="n">
-        <v>3.68</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L388" t="inlineStr">
         <is>
@@ -14672,16 +14572,14 @@
         <v>3.6235</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
       </c>
-      <c r="J389" t="n">
-        <v>3.6</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L389" t="inlineStr">
         <is>
@@ -14722,7 +14620,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L390" t="inlineStr">
         <is>
@@ -14763,7 +14661,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L391" t="inlineStr">
         <is>
@@ -14804,7 +14702,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L392" t="inlineStr">
         <is>
@@ -14845,7 +14743,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L393" t="inlineStr">
         <is>
@@ -14886,7 +14784,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L394" t="inlineStr">
         <is>
@@ -14927,7 +14825,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L395" t="inlineStr">
         <is>
@@ -14968,7 +14866,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L396" t="inlineStr">
         <is>
@@ -15009,7 +14907,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L397" t="inlineStr">
         <is>
@@ -15050,7 +14948,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L398" t="inlineStr">
         <is>
@@ -15091,7 +14989,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L399" t="inlineStr">
         <is>
@@ -15132,7 +15030,7 @@
       </c>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L400" t="inlineStr">
         <is>
@@ -15173,7 +15071,7 @@
       </c>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L401" t="inlineStr">
         <is>
@@ -15214,7 +15112,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L402" t="inlineStr">
         <is>
@@ -15255,7 +15153,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L403" t="inlineStr">
         <is>
@@ -15296,7 +15194,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L404" t="inlineStr">
         <is>
@@ -15337,7 +15235,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L405" t="inlineStr">
         <is>
@@ -15378,7 +15276,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L406" t="inlineStr">
         <is>
@@ -15419,7 +15317,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L407" t="inlineStr">
         <is>
@@ -15460,7 +15358,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L408" t="inlineStr">
         <is>
@@ -15501,7 +15399,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L409" t="inlineStr">
         <is>
@@ -15542,7 +15440,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L410" t="inlineStr">
         <is>
@@ -15583,7 +15481,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L411" t="inlineStr">
         <is>
@@ -15624,7 +15522,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L412" t="inlineStr">
         <is>
@@ -15665,7 +15563,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L413" t="inlineStr">
         <is>
@@ -15706,7 +15604,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L414" t="inlineStr">
         <is>
@@ -15747,7 +15645,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L415" t="inlineStr">
         <is>
@@ -15788,7 +15686,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L416" t="inlineStr">
         <is>
@@ -15829,7 +15727,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L417" t="inlineStr">
         <is>
@@ -15870,7 +15768,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L418" t="inlineStr">
         <is>
@@ -15911,7 +15809,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L419" t="inlineStr">
         <is>
@@ -15952,7 +15850,7 @@
       </c>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L420" t="inlineStr">
         <is>
@@ -15993,7 +15891,7 @@
       </c>
       <c r="J421" t="inlineStr"/>
       <c r="K421" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L421" t="inlineStr">
         <is>
@@ -16034,7 +15932,7 @@
       </c>
       <c r="J422" t="inlineStr"/>
       <c r="K422" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L422" t="inlineStr">
         <is>
@@ -16075,7 +15973,7 @@
       </c>
       <c r="J423" t="inlineStr"/>
       <c r="K423" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L423" t="inlineStr">
         <is>
@@ -16116,7 +16014,7 @@
       </c>
       <c r="J424" t="inlineStr"/>
       <c r="K424" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L424" t="inlineStr">
         <is>
@@ -16157,7 +16055,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L425" t="inlineStr">
         <is>
@@ -16198,7 +16096,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L426" t="inlineStr">
         <is>
@@ -16239,7 +16137,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L427" t="inlineStr">
         <is>
@@ -16280,7 +16178,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L428" t="inlineStr">
         <is>
@@ -16321,7 +16219,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L429" t="inlineStr">
         <is>
@@ -16362,7 +16260,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L430" t="inlineStr">
         <is>
@@ -16403,7 +16301,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L431" t="inlineStr">
         <is>
@@ -16444,7 +16342,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L432" t="inlineStr">
         <is>
@@ -16485,7 +16383,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L433" t="inlineStr">
         <is>
@@ -16526,7 +16424,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L434" t="inlineStr">
         <is>
@@ -16567,7 +16465,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L435" t="inlineStr">
         <is>
@@ -16608,7 +16506,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L436" t="inlineStr">
         <is>
@@ -16649,7 +16547,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L437" t="inlineStr">
         <is>
@@ -16690,7 +16588,7 @@
       </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L438" t="inlineStr">
         <is>
@@ -16731,7 +16629,7 @@
       </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L439" t="inlineStr">
         <is>
@@ -16772,7 +16670,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L440" t="inlineStr">
         <is>
@@ -16813,7 +16711,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L441" t="inlineStr">
         <is>
@@ -16854,7 +16752,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L442" t="inlineStr">
         <is>
@@ -16895,7 +16793,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L443" t="inlineStr">
         <is>
@@ -16932,89 +16830,101 @@
         <v>0</v>
       </c>
       <c r="I444" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="n">
-        <v>3.55</v>
+        <v>3.56</v>
       </c>
       <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M444" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="C445" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="D445" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="E445" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="F445" t="n">
+        <v>387867.5236518325</v>
+      </c>
+      <c r="G445" t="n">
+        <v>3.662166666666662</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="n">
+        <v>0</v>
+      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M445" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C446" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="D446" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E446" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="F446" t="n">
+        <v>237767.8176</v>
+      </c>
+      <c r="G446" t="n">
+        <v>3.665833333333329</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="n">
+        <v>1</v>
+      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="L446" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M444" t="n">
-        <v>1.071056338028169</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="C445" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="D445" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="E445" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="F445" t="n">
-        <v>387867.5236518325</v>
-      </c>
-      <c r="G445" t="n">
-        <v>3.662166666666662</v>
-      </c>
-      <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="n">
-        <v>1</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
-      <c r="M445" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C446" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="D446" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E446" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="F446" t="n">
-        <v>237767.8176</v>
-      </c>
-      <c r="G446" t="n">
-        <v>3.665833333333329</v>
-      </c>
-      <c r="H446" t="n">
-        <v>0</v>
-      </c>
-      <c r="I446" t="n">
-        <v>1</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
-        <v>1</v>
+        <v>1.056797752808989</v>
       </c>
     </row>
     <row r="447">
@@ -17288,7 +17198,7 @@
         <v>0</v>
       </c>
       <c r="I454" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
@@ -17323,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="I455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
@@ -17568,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="I462" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
@@ -17603,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="I463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
@@ -17638,7 +17548,7 @@
         <v>0</v>
       </c>
       <c r="I464" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
@@ -17673,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="I465" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
@@ -18163,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="I479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr"/>
@@ -18198,7 +18108,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr"/>
@@ -18233,7 +18143,7 @@
         <v>0</v>
       </c>
       <c r="I481" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr"/>
@@ -18268,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="I482" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
@@ -18303,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="I483" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
@@ -18793,7 +18703,7 @@
         <v>0</v>
       </c>
       <c r="I497" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
@@ -18968,7 +18878,7 @@
         <v>0</v>
       </c>
       <c r="I502" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
@@ -19003,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="I503" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
@@ -19038,7 +18948,7 @@
         <v>0</v>
       </c>
       <c r="I504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
@@ -19073,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="I505" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
@@ -27508,7 +27418,7 @@
         <v>0</v>
       </c>
       <c r="I746" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr"/>
@@ -27543,7 +27453,7 @@
         <v>0</v>
       </c>
       <c r="I747" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr"/>
@@ -27578,7 +27488,7 @@
         <v>0</v>
       </c>
       <c r="I748" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr"/>
@@ -27613,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="I749" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr"/>
@@ -27648,7 +27558,7 @@
         <v>0</v>
       </c>
       <c r="I750" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr"/>
@@ -27683,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="I751" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr"/>
@@ -27718,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="I752" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr"/>
@@ -27753,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="I753" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J753" t="inlineStr"/>
       <c r="K753" t="inlineStr"/>
@@ -27788,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="I754" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J754" t="inlineStr"/>
       <c r="K754" t="inlineStr"/>
@@ -27823,7 +27733,7 @@
         <v>0</v>
       </c>
       <c r="I755" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr"/>
@@ -27858,7 +27768,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J756" t="inlineStr"/>
       <c r="K756" t="inlineStr"/>
@@ -27893,7 +27803,7 @@
         <v>0</v>
       </c>
       <c r="I757" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J757" t="inlineStr"/>
       <c r="K757" t="inlineStr"/>
@@ -27928,7 +27838,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J758" t="inlineStr"/>
       <c r="K758" t="inlineStr"/>
@@ -27963,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I759" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J759" t="inlineStr"/>
       <c r="K759" t="inlineStr"/>
@@ -27998,7 +27908,7 @@
         <v>0</v>
       </c>
       <c r="I760" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J760" t="inlineStr"/>
       <c r="K760" t="inlineStr"/>
@@ -28033,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="I761" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr"/>
@@ -28068,7 +27978,7 @@
         <v>0</v>
       </c>
       <c r="I762" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr"/>
@@ -28173,7 +28083,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr"/>

--- a/BackTest/2019-11-02 BackTest DAC.xlsx
+++ b/BackTest/2019-11-02 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1315859.914958144</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>1738253.355724059</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.96</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>1723416.591943154</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.98</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>2019010.048943154</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.95</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,7 +605,11 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +638,17 @@
         <v>1988636.364743154</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.99</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -653,7 +681,11 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +714,17 @@
         <v>4780377.976843154</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.02</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +753,17 @@
         <v>5947903.235743154</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.03</v>
+      </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +792,17 @@
         <v>7045889.564743154</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>4.12</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +835,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +872,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +909,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +946,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +983,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1020,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1057,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1094,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1131,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1168,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1205,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1242,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1279,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1316,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1353,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1390,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1427,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,14 +1460,16 @@
         <v>15545135.5211567</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1375,7 +1495,7 @@
         <v>13157168.8134567</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1528,7 @@
         <v>13759891.3676567</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1561,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1594,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1627,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1660,7 @@
         <v>12984302.0994567</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1693,7 @@
         <v>12214475.2560567</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1726,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1759,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1792,7 @@
         <v>12261210.6442567</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1825,7 @@
         <v>11795562.8043567</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1858,7 @@
         <v>11313334.8727567</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1891,7 @@
         <v>11646498.3852567</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1924,7 @@
         <v>11549384.6702567</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1957,7 @@
         <v>11549384.6702567</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1990,7 @@
         <v>10784999.4548567</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2023,7 @@
         <v>11390175.39467887</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2056,7 @@
         <v>11390175.39467887</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2089,7 @@
         <v>11065639.60607887</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2122,7 @@
         <v>11312210.61287887</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2155,7 @@
         <v>11095235.32937887</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2188,7 @@
         <v>11377413.66447887</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2221,7 @@
         <v>11594558.05007887</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2254,7 @@
         <v>11594558.05007887</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2287,7 @@
         <v>11461738.90007887</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2320,7 @@
         <v>11461738.90007887</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2353,7 @@
         <v>11459666.22697887</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2386,7 @@
         <v>11263458.07557887</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2419,7 @@
         <v>11263458.07557887</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2452,7 @@
         <v>11283868.98167887</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2485,7 @@
         <v>11056869.10827886</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2518,7 @@
         <v>11316728.79237887</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2551,7 @@
         <v>11714017.69147887</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2584,7 @@
         <v>11496017.69147887</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2617,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2650,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2683,7 @@
         <v>11452254.77977887</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2716,7 @@
         <v>11161079.74977887</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2749,7 @@
         <v>11161079.74977887</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2782,7 @@
         <v>10724847.03367887</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2815,7 @@
         <v>9840663.164178867</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2848,7 @@
         <v>9537327.237178868</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2881,7 @@
         <v>9537327.237178868</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2914,7 @@
         <v>9328338.101778869</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2947,7 @@
         <v>9241287.183878869</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2980,7 @@
         <v>9506382.02437887</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +3013,7 @@
         <v>9172029.36317887</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +3046,7 @@
         <v>9172029.36317887</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +3079,7 @@
         <v>8806303.54627887</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +3112,7 @@
         <v>8484745.49897887</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3145,7 @@
         <v>8484745.49897887</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3178,7 @@
         <v>8693409.08997887</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3211,7 @@
         <v>8246368.15017887</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3244,7 @@
         <v>7781762.80957887</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3277,7 @@
         <v>6787671.621478871</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3310,7 @@
         <v>7258055.04317887</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3343,7 @@
         <v>9585401.42217887</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3376,7 @@
         <v>8633264.21387887</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3409,7 @@
         <v>8739447.22487887</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3442,7 @@
         <v>9055953.83127887</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3475,7 @@
         <v>10283977.81277887</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3508,7 @@
         <v>9052572.40797887</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3541,7 @@
         <v>9052572.40797887</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3574,7 @@
         <v>8768905.017978869</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3607,7 @@
         <v>9067594.175978869</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3640,7 @@
         <v>8825670.978778869</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3673,7 @@
         <v>9452677.98937887</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3706,7 @@
         <v>9452677.98937887</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3739,7 @@
         <v>9452677.98937887</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3772,7 @@
         <v>9452677.98937887</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -5335,17 +5455,11 @@
         <v>7691032.169678871</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5378,11 +5492,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5411,17 +5521,11 @@
         <v>8268103.848178871</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5454,11 +5558,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5491,11 +5591,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5524,17 +5620,11 @@
         <v>7867152.553178871</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5563,17 +5653,11 @@
         <v>7994100.286178871</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5606,11 +5690,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5639,17 +5719,11 @@
         <v>7490614.084178871</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
-      </c>
-      <c r="I158" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5678,17 +5752,11 @@
         <v>7227800.302178872</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5717,17 +5785,11 @@
         <v>6163962.930378872</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5756,17 +5818,11 @@
         <v>6451012.585178872</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5795,17 +5851,11 @@
         <v>6171317.810478872</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5834,17 +5884,11 @@
         <v>6309067.021478872</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5873,17 +5917,11 @@
         <v>6027717.025478872</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5912,17 +5950,11 @@
         <v>5743634.245478871</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5951,17 +5983,11 @@
         <v>5883714.591478871</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5994,11 +6020,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6031,11 +6053,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6068,11 +6086,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6105,11 +6119,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6142,11 +6152,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6179,11 +6185,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6212,17 +6214,11 @@
         <v>3785421.172378871</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6251,17 +6247,11 @@
         <v>4051375.418378871</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6290,17 +6280,11 @@
         <v>4049273.906878871</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6329,17 +6313,11 @@
         <v>4175393.153978871</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6368,17 +6346,11 @@
         <v>4130198.948478871</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6407,17 +6379,11 @@
         <v>4130198.948478871</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6446,17 +6412,11 @@
         <v>4133507.42747887</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6485,17 +6445,11 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6524,17 +6478,11 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6563,17 +6511,11 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6602,17 +6544,11 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6641,17 +6577,11 @@
         <v>4423147.76147887</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6680,17 +6610,11 @@
         <v>4134662.42237887</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6719,17 +6643,11 @@
         <v>4504800.43377887</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6758,17 +6676,11 @@
         <v>4048707.91497887</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6797,17 +6709,11 @@
         <v>4342096.82897887</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6836,17 +6742,11 @@
         <v>4502645.43607887</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6875,17 +6775,11 @@
         <v>4502645.43607887</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6914,17 +6808,11 @@
         <v>4694238.37847887</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6953,17 +6841,11 @@
         <v>4938420.36377887</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6996,11 +6878,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7033,11 +6911,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7070,11 +6944,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7107,11 +6977,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7144,11 +7010,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7177,17 +7039,11 @@
         <v>5093260.57627887</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>3.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7216,17 +7072,11 @@
         <v>5643510.25307887</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>3.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7255,17 +7105,11 @@
         <v>5412198.392678871</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>3.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7294,17 +7138,11 @@
         <v>5753692.853478871</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>3.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7333,17 +7171,11 @@
         <v>7263369.618578872</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>3.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7376,11 +7208,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7413,11 +7241,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7450,11 +7274,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7487,11 +7307,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7524,11 +7340,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7561,11 +7373,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7598,11 +7406,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7635,11 +7439,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7672,11 +7472,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7709,11 +7505,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7746,11 +7538,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7783,11 +7571,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7820,11 +7604,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7857,11 +7637,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7894,11 +7670,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7931,11 +7703,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7968,11 +7736,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8005,11 +7769,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8042,11 +7802,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8075,13 +7831,15 @@
         <v>5595003.373578874</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>3.76</v>
+      </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L222" t="n">
@@ -8114,7 +7872,9 @@
       <c r="H223" t="n">
         <v>1</v>
       </c>
-      <c r="I223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>3.79</v>
+      </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
@@ -8223,7 +7983,7 @@
         <v>5777522.327578874</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8262,7 +8022,9 @@
       <c r="H227" t="n">
         <v>1</v>
       </c>
-      <c r="I227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>3.77</v>
+      </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
@@ -8297,9 +8059,11 @@
         <v>5803942.794578874</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>3.76</v>
+      </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
@@ -8334,9 +8098,11 @@
         <v>5791952.208078874</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>3.77</v>
+      </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
@@ -8371,9 +8137,11 @@
         <v>5682367.886878874</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>3.76</v>
+      </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
@@ -8408,7 +8176,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>3.73</v>
@@ -8447,7 +8215,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>3.72</v>
@@ -8486,7 +8254,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>3.72</v>
@@ -8525,7 +8293,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>3.72</v>
@@ -8564,7 +8332,7 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>3.72</v>
@@ -8605,7 +8373,9 @@
       <c r="H236" t="n">
         <v>1</v>
       </c>
-      <c r="I236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>3.72</v>
+      </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
@@ -8640,9 +8410,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>3.72</v>
+      </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
@@ -8677,9 +8449,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>3.72</v>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
@@ -8714,7 +8488,7 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>3.72</v>
@@ -8753,7 +8527,7 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>3.7</v>
@@ -8792,7 +8566,7 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>3.7</v>
@@ -8831,7 +8605,7 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>3.66</v>
@@ -8870,7 +8644,7 @@
         <v>5752421.123478875</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>3.66</v>
@@ -8909,7 +8683,7 @@
         <v>5484391.705878874</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>3.71</v>
@@ -8948,7 +8722,7 @@
         <v>5200156.866778875</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>3.7</v>
@@ -8987,9 +8761,11 @@
         <v>5544320.694778875</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>3.69</v>
+      </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
@@ -9024,9 +8800,11 @@
         <v>5396348.020078874</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>3.7</v>
+      </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9098,9 +8876,11 @@
         <v>5383191.422078874</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>3.64</v>
+      </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
@@ -9209,9 +8989,11 @@
         <v>5083586.699678874</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>3.64</v>
+      </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9505,11 +9287,9 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
@@ -9544,11 +9324,9 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
-      </c>
-      <c r="I261" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
@@ -9583,11 +9361,9 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -9622,11 +9398,9 @@
         <v>5064913.134078873</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
-      </c>
-      <c r="I263" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
@@ -9661,11 +9435,9 @@
         <v>4991160.329278873</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
-      </c>
-      <c r="I264" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
@@ -9700,11 +9472,9 @@
         <v>4978858.420878873</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
-      </c>
-      <c r="I265" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
@@ -9739,11 +9509,9 @@
         <v>4997390.512478873</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
-      </c>
-      <c r="I266" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
@@ -9778,11 +9546,9 @@
         <v>4997390.512478873</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
-      </c>
-      <c r="I267" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
@@ -9817,11 +9583,9 @@
         <v>4953364.831578873</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
-      </c>
-      <c r="I268" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
@@ -9856,11 +9620,9 @@
         <v>5129178.862978873</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
-      </c>
-      <c r="I269" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
@@ -9895,11 +9657,9 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
-      </c>
-      <c r="I270" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
@@ -9934,11 +9694,9 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
-      </c>
-      <c r="I271" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
@@ -9973,11 +9731,9 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
-      </c>
-      <c r="I272" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
@@ -10012,11 +9768,9 @@
         <v>5116403.263778873</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
-      </c>
-      <c r="I273" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
@@ -10051,11 +9805,9 @@
         <v>4875946.986678873</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
-      </c>
-      <c r="I274" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
@@ -10090,11 +9842,9 @@
         <v>4452779.345578874</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
-      </c>
-      <c r="I275" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
@@ -10129,11 +9879,9 @@
         <v>4745527.416978873</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
-      </c>
-      <c r="I276" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
@@ -10168,11 +9916,9 @@
         <v>3739087.942178873</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
-      </c>
-      <c r="I277" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
@@ -10207,11 +9953,9 @@
         <v>3739087.942178873</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
-      </c>
-      <c r="I278" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
@@ -10246,11 +9990,9 @@
         <v>3894134.731178873</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
-      </c>
-      <c r="I279" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
@@ -10285,11 +10027,9 @@
         <v>3741368.145578873</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
@@ -10324,11 +10064,9 @@
         <v>3760350.493378873</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
@@ -10363,11 +10101,9 @@
         <v>3755891.196878873</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
-      </c>
-      <c r="I282" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
@@ -10402,11 +10138,9 @@
         <v>4325314.786478873</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr">
         <is>
@@ -10441,11 +10175,9 @@
         <v>4009851.005478873</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
-      </c>
-      <c r="I284" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr">
         <is>
@@ -10480,11 +10212,9 @@
         <v>4009851.005478873</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
-      </c>
-      <c r="I285" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr">
         <is>
@@ -10519,11 +10249,9 @@
         <v>3702750.407578873</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
-      </c>
-      <c r="I286" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr">
         <is>
@@ -10558,11 +10286,9 @@
         <v>4237423.422778874</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
-      </c>
-      <c r="I287" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr">
         <is>
@@ -10597,11 +10323,9 @@
         <v>4525762.371367885</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
-      </c>
-      <c r="I288" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr">
         <is>
@@ -10673,11 +10397,9 @@
         <v>4327723.706167885</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
-      </c>
-      <c r="I290" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr">
         <is>
@@ -10712,11 +10434,9 @@
         <v>4532474.963567885</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
-      </c>
-      <c r="I291" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr">
         <is>
@@ -10751,11 +10471,9 @@
         <v>4595308.485367885</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
-      </c>
-      <c r="I292" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr">
         <is>
@@ -10790,11 +10508,9 @@
         <v>4493764.705867885</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
-      </c>
-      <c r="I293" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10829,11 +10545,9 @@
         <v>4511134.573067885</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
-      </c>
-      <c r="I294" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr">
         <is>
@@ -10868,11 +10582,9 @@
         <v>4511134.573067885</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
-      </c>
-      <c r="I295" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10907,11 +10619,9 @@
         <v>4626516.257967885</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
-      </c>
-      <c r="I296" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10946,11 +10656,9 @@
         <v>4360715.670167885</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
-      </c>
-      <c r="I297" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr">
         <is>
@@ -10985,11 +10693,9 @@
         <v>4663050.627167885</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
-      </c>
-      <c r="I298" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr">
         <is>
@@ -11024,11 +10730,9 @@
         <v>4914634.742167885</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr">
         <is>
@@ -11063,11 +10767,9 @@
         <v>5173131.851167886</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr">
         <is>
@@ -11102,11 +10804,9 @@
         <v>5173131.851167886</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr">
         <is>
@@ -11141,11 +10841,9 @@
         <v>5219338.034767886</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
@@ -11180,11 +10878,9 @@
         <v>5311650.692967886</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
@@ -11219,11 +10915,9 @@
         <v>5311650.692967886</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>3.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
@@ -11258,11 +10952,9 @@
         <v>5370306.535267886</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
-      </c>
-      <c r="I305" t="n">
-        <v>3.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
@@ -11297,11 +10989,9 @@
         <v>5326256.868967886</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
-      </c>
-      <c r="I306" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
@@ -11336,11 +11026,9 @@
         <v>5371170.909267887</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
-      </c>
-      <c r="I307" t="n">
-        <v>3.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
@@ -11375,11 +11063,9 @@
         <v>5409986.964667886</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
-      </c>
-      <c r="I308" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
@@ -11414,11 +11100,9 @@
         <v>5164978.005667887</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
-      </c>
-      <c r="I309" t="n">
-        <v>3.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
@@ -11453,11 +11137,9 @@
         <v>5492475.433467886</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
-      </c>
-      <c r="I310" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
@@ -11492,11 +11174,9 @@
         <v>5490493.792867887</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
-      </c>
-      <c r="I311" t="n">
-        <v>3.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
@@ -11531,11 +11211,9 @@
         <v>5490493.792867887</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
-      </c>
-      <c r="I312" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
@@ -11755,11 +11433,9 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="n">
-        <v>3.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
@@ -11831,16 +11507,18 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H320" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L320" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
       <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
@@ -11866,11 +11544,15 @@
         <v>6816669.527749137</v>
       </c>
       <c r="H321" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11899,11 +11581,15 @@
         <v>6472069.201749137</v>
       </c>
       <c r="H322" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11932,11 +11618,15 @@
         <v>6742597.029749136</v>
       </c>
       <c r="H323" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11969,7 +11659,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12002,7 +11696,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12031,15 +11729,13 @@
         <v>6831867.682249136</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
-      </c>
-      <c r="I326" t="n">
-        <v>3.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L326" t="n">
@@ -12070,11 +11766,9 @@
         <v>6831867.682249136</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
-      </c>
-      <c r="I327" t="n">
-        <v>3.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr">
         <is>
@@ -12109,11 +11803,9 @@
         <v>6479027.721849136</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
-      </c>
-      <c r="I328" t="n">
-        <v>3.74</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr">
         <is>
@@ -12148,11 +11840,9 @@
         <v>7013478.390349136</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
-      </c>
-      <c r="I329" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr">
         <is>
@@ -12187,11 +11877,9 @@
         <v>5764265.402949136</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
-      </c>
-      <c r="I330" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr">
         <is>
@@ -12226,11 +11914,9 @@
         <v>5888894.219149136</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
-      </c>
-      <c r="I331" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr">
         <is>
@@ -12265,11 +11951,9 @@
         <v>5777573.905249136</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
-      </c>
-      <c r="I332" t="n">
-        <v>3.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr">
         <is>
@@ -12304,11 +11988,9 @@
         <v>5058962.660949135</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
-      </c>
-      <c r="I333" t="n">
-        <v>3.68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr">
         <is>
@@ -12343,7 +12025,7 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>3.66</v>
@@ -12382,7 +12064,7 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>3.65</v>
@@ -12421,7 +12103,7 @@
         <v>4954733.445349135</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>3.65</v>
@@ -12460,7 +12142,7 @@
         <v>5221217.006349135</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>3.66</v>
@@ -12499,9 +12181,11 @@
         <v>4869047.801549135</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I338" t="n">
+        <v>3.67</v>
+      </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr">
         <is>
@@ -12536,9 +12220,11 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I339" t="n">
+        <v>3.63</v>
+      </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
@@ -12573,7 +12259,7 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>3.65</v>
@@ -12612,7 +12298,7 @@
         <v>5215836.729449135</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>3.65</v>
@@ -12651,7 +12337,7 @@
         <v>6053870.514849136</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>3.64</v>
@@ -12690,7 +12376,7 @@
         <v>5604780.276849136</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>3.65</v>
@@ -12729,7 +12415,7 @@
         <v>5881953.282749136</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>3.59</v>
@@ -12768,7 +12454,7 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>3.65</v>
@@ -12807,7 +12493,7 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>3.59</v>
@@ -12846,7 +12532,7 @@
         <v>4614594.571449135</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>3.59</v>
@@ -12885,7 +12571,7 @@
         <v>4163126.003549135</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>3.58</v>
@@ -12924,7 +12610,7 @@
         <v>4198275.158549136</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>3.57</v>
@@ -12963,7 +12649,7 @@
         <v>4202704.061549135</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>3.58</v>
@@ -13002,7 +12688,7 @@
         <v>4080301.754249135</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>3.6</v>
@@ -13041,7 +12727,7 @@
         <v>4628192.439549135</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>3.57</v>
@@ -13080,7 +12766,7 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>3.6</v>
@@ -13119,7 +12805,7 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>3.56</v>
@@ -13158,7 +12844,7 @@
         <v>3867515.665349135</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>3.56</v>
@@ -13197,7 +12883,7 @@
         <v>3724938.186349135</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>3.55</v>
@@ -13236,7 +12922,7 @@
         <v>3999974.513349135</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>3.54</v>
@@ -13275,7 +12961,7 @@
         <v>3999974.513349135</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>3.55</v>
@@ -13314,7 +13000,7 @@
         <v>5160751.562049136</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>3.55</v>
@@ -13353,7 +13039,7 @@
         <v>5477487.287549135</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>3.57</v>
@@ -13392,11 +13078,9 @@
         <v>5477487.287549135</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr">
         <is>
@@ -13431,11 +13115,9 @@
         <v>5595665.419549135</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
-      </c>
-      <c r="I362" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr">
         <is>
@@ -13470,11 +13152,9 @@
         <v>5871363.755749135</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr">
         <is>
@@ -13509,11 +13189,9 @@
         <v>5429023.858749135</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
-      </c>
-      <c r="I364" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr">
         <is>
@@ -13548,11 +13226,9 @@
         <v>5655728.373749135</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
-      </c>
-      <c r="I365" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr">
         <is>
@@ -13587,11 +13263,9 @@
         <v>5362000.746749135</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
-      </c>
-      <c r="I366" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr">
         <is>
@@ -13848,11 +13522,9 @@
         <v>5185721.471249134</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
-      </c>
-      <c r="I373" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
@@ -13887,11 +13559,9 @@
         <v>5185721.471249134</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
-      </c>
-      <c r="I374" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
@@ -13926,11 +13596,9 @@
         <v>3413542.680149134</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -13965,11 +13633,9 @@
         <v>3413542.680149134</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -14004,11 +13670,9 @@
         <v>3750202.982449134</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
@@ -14043,11 +13707,9 @@
         <v>3180677.901149134</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
-      </c>
-      <c r="I378" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
@@ -14082,11 +13744,9 @@
         <v>2962282.217249134</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
-      </c>
-      <c r="I379" t="n">
-        <v>3.52</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
@@ -14121,11 +13781,9 @@
         <v>3199994.901649134</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
-      </c>
-      <c r="I380" t="n">
-        <v>3.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
@@ -14160,11 +13818,9 @@
         <v>2624633.273249134</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
-      </c>
-      <c r="I381" t="n">
-        <v>3.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -14199,7 +13855,7 @@
         <v>2906233.874249134</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>3.51</v>
@@ -14238,7 +13894,7 @@
         <v>3563187.955249134</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I383" t="n">
         <v>3.52</v>
@@ -14277,7 +13933,7 @@
         <v>3373088.489249134</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I384" t="n">
         <v>3.53</v>
@@ -14316,7 +13972,7 @@
         <v>3640150.829949134</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I385" t="n">
         <v>3.51</v>
@@ -14355,7 +14011,7 @@
         <v>3405393.758949134</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>3.55</v>
@@ -14394,7 +14050,7 @@
         <v>2997744.164549135</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I387" t="n">
         <v>3.52</v>
@@ -14433,7 +14089,7 @@
         <v>3358881.448549135</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I388" t="n">
         <v>3.5</v>
@@ -14472,7 +14128,7 @@
         <v>3770035.611549135</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I389" t="n">
         <v>3.53</v>
@@ -14511,7 +14167,7 @@
         <v>3432632.526549135</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I390" t="n">
         <v>3.56</v>
@@ -14550,7 +14206,7 @@
         <v>3740370.425749135</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I391" t="n">
         <v>3.54</v>
@@ -14589,11 +14245,9 @@
         <v>3657932.779049135</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
-      </c>
-      <c r="I392" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
@@ -14628,11 +14282,9 @@
         <v>3657932.779049135</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
-      </c>
-      <c r="I393" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
@@ -14667,11 +14319,9 @@
         <v>4043118.871449135</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
-      </c>
-      <c r="I394" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
@@ -14780,11 +14430,9 @@
         <v>4067430.724649135</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
-      </c>
-      <c r="I397" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
@@ -14819,11 +14467,9 @@
         <v>4511355.567449135</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
-      </c>
-      <c r="I398" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
@@ -14858,11 +14504,9 @@
         <v>4828427.961449135</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
-      </c>
-      <c r="I399" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
@@ -14897,11 +14541,9 @@
         <v>4545385.577449135</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
-      </c>
-      <c r="I400" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
@@ -14936,11 +14578,9 @@
         <v>4225571.979349135</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
-      </c>
-      <c r="I401" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
@@ -14975,11 +14615,9 @@
         <v>4514441.103349135</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
-      </c>
-      <c r="I402" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
@@ -15014,11 +14652,9 @@
         <v>5117548.762127243</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
-      </c>
-      <c r="I403" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
@@ -15053,11 +14689,9 @@
         <v>5478310.713627243</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
-      </c>
-      <c r="I404" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -15092,11 +14726,9 @@
         <v>5478310.713627243</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -15131,11 +14763,9 @@
         <v>5041245.293227243</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
-      </c>
-      <c r="I406" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
@@ -15244,11 +14874,9 @@
         <v>5627080.821327243</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
-      </c>
-      <c r="I409" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
@@ -15283,11 +14911,9 @@
         <v>5352914.343727243</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
-      </c>
-      <c r="I410" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
@@ -15322,11 +14948,9 @@
         <v>5352914.343727243</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
-      </c>
-      <c r="I411" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
@@ -15361,11 +14985,9 @@
         <v>5536218.709827243</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
-      </c>
-      <c r="I412" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
@@ -15400,11 +15022,9 @@
         <v>5522559.077527244</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
-      </c>
-      <c r="I413" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -15439,11 +15059,9 @@
         <v>5759358.224327244</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
-      </c>
-      <c r="I414" t="n">
-        <v>3.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
@@ -15478,11 +15096,9 @@
         <v>5759358.224327244</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
-      </c>
-      <c r="I415" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
@@ -15517,11 +15133,9 @@
         <v>6060308.228527244</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
-      </c>
-      <c r="I416" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
@@ -15556,11 +15170,9 @@
         <v>5844565.452527245</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
-      </c>
-      <c r="I417" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
@@ -15595,11 +15207,9 @@
         <v>5844565.452527245</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
-      </c>
-      <c r="I418" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
@@ -15634,11 +15244,9 @@
         <v>6085504.468627244</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
-      </c>
-      <c r="I419" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
@@ -15673,11 +15281,9 @@
         <v>5778241.521627245</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
-      </c>
-      <c r="I420" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
@@ -16045,7 +15651,7 @@
         <v>5866779.487027245</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I430" t="n">
         <v>3.7</v>
@@ -16084,7 +15690,7 @@
         <v>6184651.981027245</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I431" t="n">
         <v>3.58</v>
@@ -16123,7 +15729,7 @@
         <v>6262829.875227245</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I432" t="n">
         <v>3.66</v>
@@ -16162,7 +15768,7 @@
         <v>6064656.105927245</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I433" t="n">
         <v>3.68</v>
@@ -16201,7 +15807,7 @@
         <v>6337345.203927245</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I434" t="n">
         <v>3.62</v>
@@ -16240,7 +15846,7 @@
         <v>6509709.412827245</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I435" t="n">
         <v>3.64</v>
@@ -16279,7 +15885,7 @@
         <v>6500035.412827245</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I436" t="n">
         <v>3.66</v>
@@ -16318,7 +15924,7 @@
         <v>6509625.412827245</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I437" t="n">
         <v>3.65</v>
@@ -16357,7 +15963,7 @@
         <v>6308898.659827245</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I438" t="n">
         <v>3.66</v>
@@ -16396,7 +16002,7 @@
         <v>5908998.580827245</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I439" t="n">
         <v>3.63</v>
@@ -16435,7 +16041,7 @@
         <v>6048764.651827246</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I440" t="n">
         <v>3.61</v>
@@ -16474,7 +16080,7 @@
         <v>5615191.019527246</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I441" t="n">
         <v>3.64</v>
@@ -16513,7 +16119,7 @@
         <v>5527490.150527246</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I442" t="n">
         <v>3.61</v>
@@ -16552,7 +16158,7 @@
         <v>5387060.694727247</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I443" t="n">
         <v>3.58</v>
@@ -16591,7 +16197,7 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I444" t="n">
         <v>3.57</v>
@@ -16630,7 +16236,7 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I445" t="n">
         <v>3.56</v>
@@ -16669,7 +16275,7 @@
         <v>5465208.441427247</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I446" t="n">
         <v>3.56</v>
@@ -16708,7 +16314,7 @@
         <v>5316164.563027247</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I447" t="n">
         <v>3.65</v>
@@ -16747,7 +16353,7 @@
         <v>5548952.870527247</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I448" t="n">
         <v>3.59</v>
@@ -17008,11 +16614,9 @@
         <v>5696568.350227247</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
@@ -17195,11 +16799,9 @@
         <v>5376139.707827247</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -17234,11 +16836,9 @@
         <v>5551018.257827247</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -17273,11 +16873,9 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -17312,11 +16910,9 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -17351,11 +16947,9 @@
         <v>5229983.506827246</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -17390,11 +16984,9 @@
         <v>4941079.022827246</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
-      </c>
-      <c r="I465" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -17429,11 +17021,9 @@
         <v>5069127.627327247</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
-      </c>
-      <c r="I466" t="n">
-        <v>3.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -17468,11 +17058,9 @@
         <v>5069127.627327247</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -17507,11 +17095,9 @@
         <v>4754461.563327246</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -17546,11 +17132,9 @@
         <v>4754461.563327246</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -17585,11 +17169,9 @@
         <v>4732089.377027246</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -17624,11 +17206,9 @@
         <v>4883450.587027246</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -17663,11 +17243,9 @@
         <v>4876434.804327246</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -17702,11 +17280,9 @@
         <v>4590206.799627245</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
-      </c>
-      <c r="I473" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -17741,11 +17317,9 @@
         <v>4836143.540627246</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
-      </c>
-      <c r="I474" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -17780,11 +17354,9 @@
         <v>4585605.363627246</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
-      </c>
-      <c r="I475" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -17819,11 +17391,9 @@
         <v>4585605.363627246</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
-      </c>
-      <c r="I476" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -17895,11 +17465,9 @@
         <v>4601505.124627246</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
-      </c>
-      <c r="I478" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -17934,11 +17502,9 @@
         <v>4601505.124627246</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
-      </c>
-      <c r="I479" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -17973,11 +17539,9 @@
         <v>4325032.065027245</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
-      </c>
-      <c r="I480" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -18271,11 +17835,9 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr">
         <is>
@@ -18310,11 +17872,9 @@
         <v>4558989.436427245</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
-      </c>
-      <c r="I489" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr">
         <is>
@@ -18349,11 +17909,9 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr">
         <is>
@@ -18388,11 +17946,9 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
-      </c>
-      <c r="I491" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr">
         <is>
@@ -18427,11 +17983,9 @@
         <v>4319536.288427245</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
-      </c>
-      <c r="I492" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr">
         <is>
@@ -18466,11 +18020,9 @@
         <v>4491905.988127245</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
-      </c>
-      <c r="I493" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr">
         <is>
@@ -18505,11 +18057,9 @@
         <v>4854672.955427244</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
-      </c>
-      <c r="I494" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr">
         <is>
@@ -18544,11 +18094,9 @@
         <v>5124888.218927245</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
-      </c>
-      <c r="I495" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr">
         <is>
@@ -18583,11 +18131,9 @@
         <v>4798577.889027244</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
-      </c>
-      <c r="I496" t="n">
-        <v>3.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr">
         <is>
@@ -18622,11 +18168,9 @@
         <v>4798577.889027244</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
-      </c>
-      <c r="I497" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr">
         <is>
@@ -18661,11 +18205,9 @@
         <v>4798597.889027244</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
-      </c>
-      <c r="I498" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr">
         <is>
@@ -18700,11 +18242,9 @@
         <v>4545063.849627244</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
-      </c>
-      <c r="I499" t="n">
-        <v>3.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
       <c r="K499" t="inlineStr">
         <is>
@@ -18739,11 +18279,9 @@
         <v>4687720.622948156</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
-      </c>
-      <c r="I500" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
       <c r="K500" t="inlineStr">
         <is>
@@ -18778,11 +18316,9 @@
         <v>5061754.713848156</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
-      </c>
-      <c r="I501" t="n">
-        <v>3.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr">
         <is>
@@ -19224,11 +18760,9 @@
         <v>3075198.025960379</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
-      </c>
-      <c r="I513" t="n">
-        <v>3.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr">
         <is>
@@ -19337,11 +18871,9 @@
         <v>2675956.352760379</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
-      </c>
-      <c r="I516" t="n">
-        <v>3.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
       <c r="K516" t="inlineStr">
         <is>
@@ -19376,11 +18908,9 @@
         <v>2675966.352760379</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
-      </c>
-      <c r="I517" t="n">
-        <v>3.75</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
       <c r="K517" t="inlineStr">
         <is>
@@ -19415,11 +18945,9 @@
         <v>3252938.716760379</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
-      </c>
-      <c r="I518" t="n">
-        <v>3.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
       <c r="K518" t="inlineStr">
         <is>
@@ -19454,11 +18982,9 @@
         <v>3831491.189746461</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
-      </c>
-      <c r="I519" t="n">
-        <v>3.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
       <c r="K519" t="inlineStr">
         <is>
@@ -19641,9 +19167,11 @@
         <v>2644940.073046461</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>3.76</v>
+      </c>
       <c r="J524" t="inlineStr"/>
       <c r="K524" t="inlineStr">
         <is>
@@ -19678,9 +19206,11 @@
         <v>2768368.861046461</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>3.73</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -19715,9 +19245,11 @@
         <v>2294504.088046461</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>3.77</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -19752,9 +19284,11 @@
         <v>2827415.437148492</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>3.76</v>
+      </c>
       <c r="J527" t="inlineStr"/>
       <c r="K527" t="inlineStr">
         <is>
@@ -19789,9 +19323,11 @@
         <v>3187732.740461615</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>3.77</v>
+      </c>
       <c r="J528" t="inlineStr"/>
       <c r="K528" t="inlineStr">
         <is>
@@ -19826,9 +19362,11 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>3.81</v>
+      </c>
       <c r="J529" t="inlineStr"/>
       <c r="K529" t="inlineStr">
         <is>
@@ -19863,9 +19401,11 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J530" t="inlineStr"/>
       <c r="K530" t="inlineStr">
         <is>
@@ -19900,9 +19440,11 @@
         <v>4081657.669288346</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J531" t="inlineStr"/>
       <c r="K531" t="inlineStr">
         <is>
@@ -19937,9 +19479,11 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>3.84</v>
+      </c>
       <c r="J532" t="inlineStr"/>
       <c r="K532" t="inlineStr">
         <is>
@@ -19974,9 +19518,11 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>3.82</v>
+      </c>
       <c r="J533" t="inlineStr"/>
       <c r="K533" t="inlineStr">
         <is>
@@ -20011,9 +19557,11 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>3.82</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -20048,7 +19596,7 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I535" t="n">
         <v>3.82</v>
@@ -20087,9 +19635,11 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J536" t="inlineStr"/>
       <c r="K536" t="inlineStr">
         <is>
@@ -20124,9 +19674,11 @@
         <v>3954106.150345113</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>3.83</v>
+      </c>
       <c r="J537" t="inlineStr"/>
       <c r="K537" t="inlineStr">
         <is>
@@ -20161,9 +19713,11 @@
         <v>3771221.743345113</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
-      </c>
-      <c r="I538" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I538" t="n">
+        <v>3.82</v>
+      </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr">
         <is>
@@ -20198,9 +19752,11 @@
         <v>4073579.589545113</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
@@ -20235,9 +19791,11 @@
         <v>4072192.923245113</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>3.81</v>
+      </c>
       <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
@@ -20272,9 +19830,11 @@
         <v>4043928.225445113</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
-      </c>
-      <c r="I541" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I541" t="n">
+        <v>3.78</v>
+      </c>
       <c r="J541" t="inlineStr"/>
       <c r="K541" t="inlineStr">
         <is>
@@ -20309,7 +19869,7 @@
         <v>3914277.721645113</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I542" t="n">
         <v>3.76</v>
@@ -20348,7 +19908,7 @@
         <v>4303232.825645112</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I543" t="n">
         <v>3.72</v>
@@ -20387,7 +19947,7 @@
         <v>4569434.805645112</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I544" t="n">
         <v>3.73</v>
@@ -20426,7 +19986,7 @@
         <v>4295214.631645112</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I545" t="n">
         <v>3.79</v>
@@ -20465,7 +20025,7 @@
         <v>4513925.974645113</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I546" t="n">
         <v>3.75</v>
@@ -20504,7 +20064,7 @@
         <v>4524907.140945112</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I547" t="n">
         <v>3.76</v>
@@ -20543,9 +20103,11 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>3.77</v>
+      </c>
       <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
@@ -20580,9 +20142,11 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
@@ -22393,16 +21957,18 @@
         <v>8740963.660099763</v>
       </c>
       <c r="H598" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L598" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L598" t="n">
+        <v>1</v>
+      </c>
       <c r="M598" t="inlineStr"/>
     </row>
     <row r="599">
@@ -22428,11 +21994,15 @@
         <v>9140646.980199764</v>
       </c>
       <c r="H599" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -22465,7 +22035,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -22498,7 +22072,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -22531,7 +22109,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -22564,7 +22146,11 @@
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -22597,7 +22183,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -22630,7 +22220,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -22663,7 +22257,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -22696,7 +22294,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -22729,7 +22331,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -22762,7 +22368,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -22795,7 +22405,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -22828,7 +22442,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -22861,7 +22479,11 @@
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -22894,7 +22516,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -22927,7 +22553,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -22960,7 +22590,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -22993,7 +22627,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -23026,7 +22664,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -23059,7 +22701,11 @@
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -23092,7 +22738,11 @@
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -23125,7 +22775,11 @@
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -23158,7 +22812,11 @@
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -23191,7 +22849,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -23224,7 +22886,11 @@
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -23257,7 +22923,11 @@
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -23290,7 +22960,11 @@
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -23323,7 +22997,11 @@
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -23356,7 +23034,11 @@
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -23389,7 +23071,11 @@
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -23422,7 +23108,11 @@
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -23455,7 +23145,11 @@
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -23488,7 +23182,11 @@
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -23521,7 +23219,11 @@
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -23554,7 +23256,11 @@
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -23587,7 +23293,11 @@
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -23620,7 +23330,11 @@
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -23653,7 +23367,11 @@
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -23686,7 +23404,11 @@
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -23719,7 +23441,11 @@
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -23752,7 +23478,11 @@
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -23785,7 +23515,11 @@
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -23818,7 +23552,11 @@
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
-      <c r="K641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -23851,7 +23589,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
-      <c r="K642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -23884,7 +23626,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
-      <c r="K643" t="inlineStr"/>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23917,7 +23663,11 @@
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23950,7 +23700,11 @@
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23983,7 +23737,11 @@
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -24016,7 +23774,11 @@
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
-      <c r="K647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -24049,7 +23811,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -24082,7 +23848,11 @@
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -24115,7 +23885,11 @@
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -24148,7 +23922,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -24181,7 +23959,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -24214,7 +23996,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -24247,7 +24033,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -24280,7 +24070,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -24313,7 +24107,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -24346,7 +24144,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -24379,7 +24181,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -24412,7 +24218,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -24445,7 +24255,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -24478,7 +24292,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -24511,7 +24329,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -24544,7 +24366,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -24577,7 +24403,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -24610,7 +24440,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -24643,7 +24477,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -24676,7 +24514,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -24709,7 +24551,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24742,7 +24588,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24775,7 +24625,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24808,7 +24662,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24841,7 +24699,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24874,7 +24736,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24907,7 +24773,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24940,7 +24810,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24973,7 +24847,11 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -25006,7 +24884,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -25039,7 +24921,11 @@
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -25072,7 +24958,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -25105,7 +24995,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -25138,7 +25032,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -25171,7 +25069,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -25204,7 +25106,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -25237,7 +25143,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -25270,7 +25180,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -25303,7 +25217,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -25336,7 +25254,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -25369,7 +25291,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -25402,7 +25328,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -25435,7 +25365,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -25464,11 +25398,15 @@
         <v>7296387.464899762</v>
       </c>
       <c r="H691" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -25497,11 +25435,15 @@
         <v>7298998.713499761</v>
       </c>
       <c r="H692" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -25534,7 +25476,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25563,11 +25509,15 @@
         <v>6212382.435099761</v>
       </c>
       <c r="H694" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25596,11 +25546,15 @@
         <v>6121041.410099761</v>
       </c>
       <c r="H695" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25633,7 +25587,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25666,7 +25624,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25699,7 +25661,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25728,11 +25694,15 @@
         <v>6193276.307599762</v>
       </c>
       <c r="H699" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25765,7 +25735,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25798,7 +25772,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25831,7 +25809,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25864,7 +25846,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25897,7 +25883,11 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25930,7 +25920,11 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25963,7 +25957,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25996,7 +25994,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -26029,7 +26031,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -26062,7 +26068,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -26095,7 +26105,11 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -26128,7 +26142,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -26161,7 +26179,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -26194,7 +26216,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -26227,7 +26253,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -26260,7 +26290,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -26293,7 +26327,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -26326,7 +26364,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -26359,7 +26401,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26392,7 +26438,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26425,7 +26475,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26458,7 +26512,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26491,7 +26549,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26524,7 +26586,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26557,7 +26623,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26590,7 +26660,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26623,7 +26697,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -26652,15 +26730,15 @@
         <v>6630270.904399758</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
-      </c>
-      <c r="I727" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="J727" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="K727" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -26692,12 +26770,10 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>3.63</v>
-      </c>
+      <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L728" t="n">
@@ -26731,12 +26807,10 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>3.63</v>
-      </c>
+      <c r="J729" t="inlineStr"/>
       <c r="K729" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L729" t="n">
@@ -26771,7 +26845,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -26804,7 +26882,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -26837,7 +26919,11 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26870,7 +26956,11 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26903,7 +26993,11 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26936,7 +27030,11 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26969,7 +27067,11 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -27002,7 +27104,11 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -27035,7 +27141,11 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -27068,7 +27178,11 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -27101,7 +27215,11 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -27134,7 +27252,11 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -27167,7 +27289,11 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -27200,7 +27326,11 @@
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -27233,7 +27363,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -27266,7 +27400,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -27299,7 +27437,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -27332,7 +27474,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -27365,7 +27511,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -27398,7 +27548,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27431,7 +27585,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27464,7 +27622,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27497,7 +27659,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27530,7 +27696,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27563,7 +27733,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27596,7 +27770,11 @@
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27629,7 +27807,11 @@
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27662,7 +27844,11 @@
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27695,7 +27881,11 @@
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27728,7 +27918,11 @@
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27761,7 +27955,11 @@
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27794,7 +27992,11 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27827,7 +28029,11 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27860,7 +28066,11 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27893,7 +28103,11 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27926,7 +28140,11 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27959,7 +28177,11 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27992,7 +28214,11 @@
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28025,7 +28251,11 @@
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28058,7 +28288,11 @@
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -28091,7 +28325,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -28124,7 +28362,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -28157,7 +28399,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -28186,15 +28432,15 @@
         <v>5659607.801970269</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
-      </c>
-      <c r="I773" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J773" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K773" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I773" t="inlineStr"/>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -28226,12 +28472,10 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J774" t="inlineStr"/>
       <c r="K774" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L774" t="n">
@@ -28262,17 +28506,13 @@
         <v>5533970.177970269</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
-      </c>
-      <c r="I775" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J775" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
       <c r="K775" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L775" t="n">
@@ -28303,14 +28543,10 @@
         <v>5375945.530270269</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
-      </c>
-      <c r="I776" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="J776" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28344,14 +28580,10 @@
         <v>5376845.530270269</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
-      </c>
-      <c r="I777" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="J777" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I777" t="inlineStr"/>
+      <c r="J777" t="inlineStr"/>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28385,14 +28617,10 @@
         <v>5456845.530270269</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
-      </c>
-      <c r="I778" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="J778" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="inlineStr"/>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28429,9 +28657,7 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J779" t="inlineStr"/>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28465,14 +28691,10 @@
         <v>5556825.530270269</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
-      </c>
-      <c r="I780" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="J780" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28509,9 +28731,7 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28548,9 +28768,7 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J782" t="inlineStr"/>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28587,9 +28805,7 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J783" t="inlineStr"/>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28626,9 +28842,7 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28665,9 +28879,7 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J785" t="inlineStr"/>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28704,9 +28916,7 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J786" t="inlineStr"/>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28743,9 +28953,7 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28782,9 +28990,7 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J788" t="inlineStr"/>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28821,9 +29027,7 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J789" t="inlineStr"/>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28860,9 +29064,7 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J790" t="inlineStr"/>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28896,14 +29098,10 @@
         <v>5378397.67659976</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
-      </c>
-      <c r="I791" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J791" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28940,9 +29138,7 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J792" t="inlineStr"/>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28976,14 +29172,10 @@
         <v>5418386.67659976</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
-      </c>
-      <c r="I793" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="J793" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29017,14 +29209,10 @@
         <v>5418375.67659976</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
-      </c>
-      <c r="I794" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="J794" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29058,14 +29246,10 @@
         <v>5488486.67659976</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
-      </c>
-      <c r="I795" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="J795" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I795" t="inlineStr"/>
+      <c r="J795" t="inlineStr"/>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29099,14 +29283,10 @@
         <v>5516030.67659976</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
-      </c>
-      <c r="I796" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="J796" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I796" t="inlineStr"/>
+      <c r="J796" t="inlineStr"/>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29143,9 +29323,7 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J797" t="inlineStr"/>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29179,14 +29357,10 @@
         <v>5588463.92499976</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
-      </c>
-      <c r="I798" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J798" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29223,9 +29397,7 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J799" t="inlineStr"/>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29262,9 +29434,7 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J800" t="inlineStr"/>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29301,9 +29471,7 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J801" t="inlineStr"/>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29340,9 +29508,7 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J802" t="inlineStr"/>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29379,9 +29545,7 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J803" t="inlineStr"/>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29418,9 +29582,7 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J804" t="inlineStr"/>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29457,9 +29619,7 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J805" t="inlineStr"/>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29496,9 +29656,7 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J806" t="inlineStr"/>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29535,9 +29693,7 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J807" t="inlineStr"/>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29574,9 +29730,7 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J808" t="inlineStr"/>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29613,9 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J809" t="inlineStr"/>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29652,9 +29804,7 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29691,9 +29841,7 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29730,9 +29878,7 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29769,9 +29915,7 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29808,9 +29952,7 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29847,9 +29989,7 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29886,9 +30026,7 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29925,9 +30063,7 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29964,9 +30100,7 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30003,9 +30137,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30042,9 +30174,7 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30081,9 +30211,7 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30120,9 +30248,7 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30159,9 +30285,7 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30198,9 +30322,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30237,9 +30359,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30276,9 +30396,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30315,9 +30433,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30354,9 +30470,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30393,9 +30507,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30432,9 +30544,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30471,9 +30581,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30510,9 +30618,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30549,9 +30655,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30588,9 +30692,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30627,9 +30729,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30666,9 +30766,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30705,9 +30803,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30744,9 +30840,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30780,14 +30874,10 @@
         <v>4767025.73199976</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
-      </c>
-      <c r="I839" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="J839" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30821,14 +30911,10 @@
         <v>4661893.30969976</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
-      </c>
-      <c r="I840" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="J840" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30862,12 +30948,12 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I841" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30901,14 +30987,12 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>3.65</v>
       </c>
-      <c r="J842" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30942,14 +31026,12 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>3.65</v>
       </c>
-      <c r="J843" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30983,12 +31065,12 @@
         <v>4605262.146699759</v>
       </c>
       <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
         <v>3.65</v>
       </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31022,14 +31104,12 @@
         <v>4605282.146699759</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>3.63</v>
       </c>
-      <c r="J845" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31063,14 +31143,12 @@
         <v>4605302.146699759</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>3.7</v>
       </c>
-      <c r="J846" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31104,14 +31182,12 @@
         <v>4585302.146699759</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I847" t="n">
         <v>3.74</v>
       </c>
-      <c r="J847" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31145,12 +31221,12 @@
         <v>4515639.292099759</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>3.65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31187,9 +31263,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31223,12 +31297,12 @@
         <v>4585659.292099759</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>3.65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31265,9 +31339,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31301,14 +31373,10 @@
         <v>4544925.867499759</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
-      </c>
-      <c r="I852" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="J852" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31345,9 +31413,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31381,14 +31447,10 @@
         <v>4545025.867499759</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
-      </c>
-      <c r="I854" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="J854" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I854" t="inlineStr"/>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31425,9 +31487,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31464,9 +31524,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31503,9 +31561,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31542,9 +31598,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31578,12 +31632,12 @@
         <v>4318867.603399759</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>3.65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31620,9 +31674,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31659,9 +31711,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31698,9 +31748,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31737,9 +31785,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31776,9 +31822,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31815,9 +31859,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31854,9 +31896,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31893,9 +31933,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31932,9 +31970,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31968,12 +32004,12 @@
         <v>2651461.722799759</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>3.65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32007,14 +32043,12 @@
         <v>2651461.722799759</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870" t="n">
         <v>3.5</v>
       </c>
-      <c r="J870" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32048,14 +32082,12 @@
         <v>2651461.722799759</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>3.5</v>
       </c>
-      <c r="J871" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32089,14 +32121,12 @@
         <v>2651461.722799759</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="n">
         <v>3.5</v>
       </c>
-      <c r="J872" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32130,14 +32160,12 @@
         <v>2651461.722799759</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>3.5</v>
       </c>
-      <c r="J873" t="n">
-        <v>3.65</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32149,6 +32177,6 @@
       <c r="M873" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-02 BackTest DAC.xlsx
+++ b/BackTest/2019-11-02 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1315859.914958144</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>1738253.355724059</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.96</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>1723416.591943154</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.98</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>2019010.048943154</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.95</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,15 +583,11 @@
         <v>2019010.048943154</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,17 +616,11 @@
         <v>1988636.364743154</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.99</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,15 +649,11 @@
         <v>3448571.798043154</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,17 +682,11 @@
         <v>4780377.976843154</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4.02</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -753,17 +715,11 @@
         <v>5947903.235743154</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -792,17 +748,11 @@
         <v>7045889.564743154</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -872,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -909,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -946,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -983,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1020,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1057,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1094,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1131,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1168,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1205,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1242,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1279,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1316,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1353,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1390,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1427,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1460,16 +1342,14 @@
         <v>15545135.5211567</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
       <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -1528,7 +1408,7 @@
         <v>13759891.3676567</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1561,7 +1441,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1594,7 +1474,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1627,7 +1507,7 @@
         <v>12721449.4329567</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1660,7 +1540,7 @@
         <v>12984302.0994567</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1693,7 +1573,7 @@
         <v>12214475.2560567</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1726,7 +1606,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1759,7 +1639,7 @@
         <v>12074236.2902567</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1792,7 +1672,7 @@
         <v>12261210.6442567</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1825,7 +1705,7 @@
         <v>11795562.8043567</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1858,7 +1738,7 @@
         <v>11313334.8727567</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1891,7 +1771,7 @@
         <v>11646498.3852567</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1924,7 +1804,7 @@
         <v>11549384.6702567</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1957,7 +1837,7 @@
         <v>11549384.6702567</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1990,7 +1870,7 @@
         <v>10784999.4548567</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2023,7 +1903,7 @@
         <v>11390175.39467887</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2056,7 +1936,7 @@
         <v>11390175.39467887</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2089,7 +1969,7 @@
         <v>11065639.60607887</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2122,7 +2002,7 @@
         <v>11312210.61287887</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2155,7 +2035,7 @@
         <v>11095235.32937887</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2188,7 +2068,7 @@
         <v>11377413.66447887</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2221,7 +2101,7 @@
         <v>11594558.05007887</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2254,7 +2134,7 @@
         <v>11594558.05007887</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2287,7 +2167,7 @@
         <v>11461738.90007887</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2320,7 +2200,7 @@
         <v>11461738.90007887</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2353,7 +2233,7 @@
         <v>11459666.22697887</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2386,7 +2266,7 @@
         <v>11263458.07557887</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2419,7 +2299,7 @@
         <v>11263458.07557887</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2452,7 +2332,7 @@
         <v>11283868.98167887</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2485,7 +2365,7 @@
         <v>11056869.10827886</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2518,7 +2398,7 @@
         <v>11316728.79237887</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2551,7 +2431,7 @@
         <v>11714017.69147887</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2584,7 +2464,7 @@
         <v>11496017.69147887</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2617,7 +2497,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2650,7 +2530,7 @@
         <v>11611842.71197887</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2683,7 +2563,7 @@
         <v>11452254.77977887</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2716,7 +2596,7 @@
         <v>11161079.74977887</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2749,7 +2629,7 @@
         <v>11161079.74977887</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2782,7 +2662,7 @@
         <v>10724847.03367887</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2815,7 +2695,7 @@
         <v>9840663.164178867</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2848,7 +2728,7 @@
         <v>9537327.237178868</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2881,7 +2761,7 @@
         <v>9537327.237178868</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2914,7 +2794,7 @@
         <v>9328338.101778869</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2947,7 +2827,7 @@
         <v>9241287.183878869</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2980,7 +2860,7 @@
         <v>9506382.02437887</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3013,7 +2893,7 @@
         <v>9172029.36317887</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3046,7 +2926,7 @@
         <v>9172029.36317887</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3079,7 +2959,7 @@
         <v>8806303.54627887</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3112,7 +2992,7 @@
         <v>8484745.49897887</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3145,7 +3025,7 @@
         <v>8484745.49897887</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3178,7 +3058,7 @@
         <v>8693409.08997887</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3211,7 +3091,7 @@
         <v>8246368.15017887</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3244,7 +3124,7 @@
         <v>7781762.80957887</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3277,7 +3157,7 @@
         <v>6787671.621478871</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3310,7 +3190,7 @@
         <v>7258055.04317887</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3343,7 +3223,7 @@
         <v>9585401.42217887</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3376,7 +3256,7 @@
         <v>8633264.21387887</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3409,7 +3289,7 @@
         <v>8739447.22487887</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3442,7 +3322,7 @@
         <v>9055953.83127887</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3475,7 +3355,7 @@
         <v>10283977.81277887</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3508,7 +3388,7 @@
         <v>9052572.40797887</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3541,7 +3421,7 @@
         <v>9052572.40797887</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -7831,17 +7711,11 @@
         <v>5595003.373578874</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>3.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7870,17 +7744,11 @@
         <v>5575918.427878874</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>3.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7913,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7950,11 +7814,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7987,11 +7847,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8020,17 +7876,11 @@
         <v>5612973.013578874</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>3.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8059,17 +7909,11 @@
         <v>5803942.794578874</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>3.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8098,17 +7942,11 @@
         <v>5791952.208078874</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>3.77</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8137,17 +7975,11 @@
         <v>5682367.886878874</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>3.76</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8176,17 +8008,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>3.73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8215,17 +8041,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8254,17 +8074,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8293,17 +8107,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8332,17 +8140,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8371,17 +8173,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8410,17 +8206,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8449,17 +8239,11 @@
         <v>5613611.217878874</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8488,17 +8272,11 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>3.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8527,17 +8305,11 @@
         <v>5605454.098378874</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8566,17 +8338,11 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8605,17 +8371,11 @@
         <v>5519463.352578875</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8644,17 +8404,11 @@
         <v>5752421.123478875</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8683,17 +8437,11 @@
         <v>5484391.705878874</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>3.71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8722,17 +8470,11 @@
         <v>5200156.866778875</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8761,17 +8503,11 @@
         <v>5544320.694778875</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>3.69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8800,17 +8536,11 @@
         <v>5396348.020078874</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>3.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8843,11 +8573,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8876,17 +8602,11 @@
         <v>5383191.422078874</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8919,11 +8639,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8956,11 +8672,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8989,17 +8701,11 @@
         <v>5083586.699678874</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9032,11 +8738,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +8771,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +8804,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9143,11 +8837,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8870,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +8903,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +8936,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +8969,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +9002,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +9035,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +9068,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +9101,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9476,11 +9134,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9513,11 +9167,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9550,11 +9200,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9587,11 +9233,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9624,11 +9266,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9661,11 +9299,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9698,11 +9332,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9735,11 +9365,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9772,11 +9398,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9809,11 +9431,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9846,11 +9464,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9883,11 +9497,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +9530,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9957,11 +9563,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9994,11 +9596,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10031,11 +9629,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10068,11 +9662,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10105,11 +9695,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10142,11 +9728,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10179,11 +9761,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10216,11 +9794,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10253,11 +9827,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10290,11 +9860,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10327,11 +9893,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10364,11 +9926,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10401,11 +9959,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10438,11 +9992,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10475,11 +10025,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10512,11 +10058,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10091,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10586,11 +10124,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10623,11 +10157,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10660,11 +10190,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10697,11 +10223,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10734,11 +10256,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10771,11 +10289,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10808,11 +10322,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10845,11 +10355,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10882,11 +10388,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10919,11 +10421,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10956,11 +10454,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10993,11 +10487,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11030,11 +10520,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11067,11 +10553,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11104,11 +10586,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11141,11 +10619,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11178,11 +10652,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11215,11 +10685,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11252,11 +10718,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11289,11 +10751,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11326,11 +10784,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11363,11 +10817,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11400,11 +10850,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11437,11 +10883,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11474,11 +10916,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11511,11 +10949,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11548,11 +10982,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11585,11 +11015,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11622,11 +11048,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11659,11 +11081,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11696,11 +11114,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11733,11 +11147,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11770,11 +11180,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11807,11 +11213,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11844,11 +11246,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11881,11 +11279,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11918,11 +11312,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11955,11 +11345,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11992,11 +11378,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12025,17 +11407,11 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12064,17 +11440,11 @@
         <v>4692652.122349136</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12103,17 +11473,11 @@
         <v>4954733.445349135</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12142,17 +11506,11 @@
         <v>5221217.006349135</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>3.66</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12181,17 +11539,11 @@
         <v>4869047.801549135</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>3.67</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12220,17 +11572,11 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>3.63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12259,17 +11605,11 @@
         <v>5340928.049849135</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12298,17 +11638,11 @@
         <v>5215836.729449135</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12337,17 +11671,11 @@
         <v>6053870.514849136</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>3.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12376,17 +11704,11 @@
         <v>5604780.276849136</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12415,17 +11737,11 @@
         <v>5881953.282749136</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12454,17 +11770,11 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>3.65</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12493,17 +11803,11 @@
         <v>5381406.359749136</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12532,17 +11836,11 @@
         <v>4614594.571449135</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>3.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12571,17 +11869,11 @@
         <v>4163126.003549135</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12610,17 +11902,11 @@
         <v>4198275.158549136</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12649,17 +11935,11 @@
         <v>4202704.061549135</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>3.58</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12688,17 +11968,11 @@
         <v>4080301.754249135</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12727,17 +12001,11 @@
         <v>4628192.439549135</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12766,17 +12034,11 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>3.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12805,17 +12067,11 @@
         <v>4428347.943249135</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12844,17 +12100,11 @@
         <v>3867515.665349135</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12883,17 +12133,11 @@
         <v>3724938.186349135</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>3.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12927,12 +12171,10 @@
       <c r="I357" t="n">
         <v>3.54</v>
       </c>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12966,10 +12208,12 @@
       <c r="I358" t="n">
         <v>3.55</v>
       </c>
-      <c r="J358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K358" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L358" t="n">
@@ -13005,10 +12249,12 @@
       <c r="I359" t="n">
         <v>3.55</v>
       </c>
-      <c r="J359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K359" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L359" t="n">
@@ -13044,7 +12290,9 @@
       <c r="I360" t="n">
         <v>3.57</v>
       </c>
-      <c r="J360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13081,7 +12329,9 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13118,7 +12368,9 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13155,7 +12407,9 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13192,7 +12446,9 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13229,7 +12485,9 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13266,7 +12524,9 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13303,7 +12563,9 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13340,7 +12602,9 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13377,7 +12641,9 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13414,7 +12680,9 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13451,7 +12719,9 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13488,7 +12758,9 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13525,7 +12797,9 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13562,7 +12836,9 @@
         <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13599,7 +12875,9 @@
         <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
+      <c r="J375" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13636,7 +12914,9 @@
         <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+      <c r="J376" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13670,10 +12950,14 @@
         <v>3750202.982449134</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J377" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13707,10 +12991,14 @@
         <v>3180677.901149134</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
-      <c r="J378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J378" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13744,10 +13032,14 @@
         <v>2962282.217249134</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
-      <c r="J379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="J379" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13781,10 +13073,14 @@
         <v>3199994.901649134</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
-      <c r="J380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J380" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13818,10 +13114,14 @@
         <v>2624633.273249134</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
-      <c r="J381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J381" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13860,7 +13160,9 @@
       <c r="I382" t="n">
         <v>3.51</v>
       </c>
-      <c r="J382" t="inlineStr"/>
+      <c r="J382" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13899,7 +13201,9 @@
       <c r="I383" t="n">
         <v>3.52</v>
       </c>
-      <c r="J383" t="inlineStr"/>
+      <c r="J383" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13938,7 +13242,9 @@
       <c r="I384" t="n">
         <v>3.53</v>
       </c>
-      <c r="J384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13977,7 +13283,9 @@
       <c r="I385" t="n">
         <v>3.51</v>
       </c>
-      <c r="J385" t="inlineStr"/>
+      <c r="J385" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14016,7 +13324,9 @@
       <c r="I386" t="n">
         <v>3.55</v>
       </c>
-      <c r="J386" t="inlineStr"/>
+      <c r="J386" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14055,7 +13365,9 @@
       <c r="I387" t="n">
         <v>3.52</v>
       </c>
-      <c r="J387" t="inlineStr"/>
+      <c r="J387" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14094,7 +13406,9 @@
       <c r="I388" t="n">
         <v>3.5</v>
       </c>
-      <c r="J388" t="inlineStr"/>
+      <c r="J388" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14133,7 +13447,9 @@
       <c r="I389" t="n">
         <v>3.53</v>
       </c>
-      <c r="J389" t="inlineStr"/>
+      <c r="J389" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14172,7 +13488,9 @@
       <c r="I390" t="n">
         <v>3.56</v>
       </c>
-      <c r="J390" t="inlineStr"/>
+      <c r="J390" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14211,7 +13529,9 @@
       <c r="I391" t="n">
         <v>3.54</v>
       </c>
-      <c r="J391" t="inlineStr"/>
+      <c r="J391" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14245,10 +13565,14 @@
         <v>3657932.779049135</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J392" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14282,10 +13606,14 @@
         <v>3657932.779049135</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J393" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14319,10 +13647,14 @@
         <v>4043118.871449135</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="J394" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14359,7 +13691,9 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14396,7 +13730,9 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="inlineStr"/>
+      <c r="J396" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14433,7 +13769,9 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="inlineStr"/>
+      <c r="J397" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14470,7 +13808,9 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="inlineStr"/>
+      <c r="J398" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14507,7 +13847,9 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="inlineStr"/>
+      <c r="J399" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14544,7 +13886,9 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="inlineStr"/>
+      <c r="J400" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14581,7 +13925,9 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="inlineStr"/>
+      <c r="J401" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14618,7 +13964,9 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="inlineStr"/>
+      <c r="J402" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14655,7 +14003,9 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="inlineStr"/>
+      <c r="J403" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14692,7 +14042,9 @@
         <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="inlineStr"/>
+      <c r="J404" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14729,7 +14081,9 @@
         <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="inlineStr"/>
+      <c r="J405" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14766,7 +14120,9 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="inlineStr"/>
+      <c r="J406" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14803,7 +14159,9 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="inlineStr"/>
+      <c r="J407" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14840,7 +14198,9 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="inlineStr"/>
+      <c r="J408" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14877,7 +14237,9 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="inlineStr"/>
+      <c r="J409" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14914,7 +14276,9 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="inlineStr"/>
+      <c r="J410" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14951,7 +14315,9 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="inlineStr"/>
+      <c r="J411" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14988,7 +14354,9 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="inlineStr"/>
+      <c r="J412" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15025,7 +14393,9 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="inlineStr"/>
+      <c r="J413" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15062,7 +14432,9 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="inlineStr"/>
+      <c r="J414" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15099,7 +14471,9 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="inlineStr"/>
+      <c r="J415" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15136,7 +14510,9 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="inlineStr"/>
+      <c r="J416" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15173,7 +14549,9 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="inlineStr"/>
+      <c r="J417" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15210,7 +14588,9 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="inlineStr"/>
+      <c r="J418" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15247,7 +14627,9 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="inlineStr"/>
+      <c r="J419" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15284,7 +14666,9 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="inlineStr"/>
+      <c r="J420" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15321,7 +14705,9 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+      <c r="J421" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15358,7 +14744,9 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
+      <c r="J422" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15395,7 +14783,9 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
+      <c r="J423" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15432,7 +14822,9 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
+      <c r="J424" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15469,7 +14861,9 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="inlineStr"/>
+      <c r="J425" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15506,7 +14900,9 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="inlineStr"/>
+      <c r="J426" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15543,7 +14939,9 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="inlineStr"/>
+      <c r="J427" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15580,7 +14978,9 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="inlineStr"/>
+      <c r="J428" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15617,7 +15017,9 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="inlineStr"/>
+      <c r="J429" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15651,12 +15053,12 @@
         <v>5866779.487027245</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J430" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15690,12 +15092,12 @@
         <v>6184651.981027245</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="J431" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15729,12 +15131,12 @@
         <v>6262829.875227245</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J432" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15768,12 +15170,12 @@
         <v>6064656.105927245</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="J433" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15807,12 +15209,12 @@
         <v>6337345.203927245</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="J434" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15846,12 +15248,12 @@
         <v>6509709.412827245</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="J435" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15885,12 +15287,12 @@
         <v>6500035.412827245</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J436" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15924,12 +15326,12 @@
         <v>6509625.412827245</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J437" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15963,12 +15365,12 @@
         <v>6308898.659827245</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J438" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16002,12 +15404,12 @@
         <v>5908998.580827245</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="J439" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16041,12 +15443,12 @@
         <v>6048764.651827246</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="J440" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16080,12 +15482,12 @@
         <v>5615191.019527246</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="J441" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16119,12 +15521,12 @@
         <v>5527490.150527246</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="J442" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16158,12 +15560,12 @@
         <v>5387060.694727247</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
-      </c>
-      <c r="I443" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="J443" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16197,12 +15599,12 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H444" t="n">
-        <v>1</v>
-      </c>
-      <c r="I444" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="J444" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16236,12 +15638,12 @@
         <v>5123377.968727247</v>
       </c>
       <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="J445" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16275,12 +15677,12 @@
         <v>5465208.441427247</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="J446" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16314,12 +15716,12 @@
         <v>5316164.563027247</v>
       </c>
       <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J447" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16353,12 +15755,12 @@
         <v>5548952.870527247</v>
       </c>
       <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="J448" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16395,7 +15797,9 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16432,7 +15836,9 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16469,7 +15875,9 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16506,7 +15914,9 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16543,7 +15953,9 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16580,7 +15992,9 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16617,7 +16031,9 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16654,7 +16070,9 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16691,7 +16109,9 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16728,7 +16148,9 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16765,7 +16187,9 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16802,7 +16226,9 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16839,7 +16265,9 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16876,7 +16304,9 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16913,7 +16343,9 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16950,7 +16382,9 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16987,7 +16421,9 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17024,7 +16460,9 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17061,7 +16499,9 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17098,7 +16538,9 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17135,7 +16577,9 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17172,7 +16616,9 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17209,7 +16655,9 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17246,7 +16694,9 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17283,7 +16733,9 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17320,7 +16772,9 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17357,7 +16811,9 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17394,7 +16850,9 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17431,7 +16889,9 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17468,7 +16928,9 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17505,7 +16967,9 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17542,7 +17006,9 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17579,7 +17045,9 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17616,7 +17084,9 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17653,7 +17123,9 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17690,7 +17162,9 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17727,7 +17201,9 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17764,7 +17240,9 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17801,7 +17279,9 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17838,7 +17318,9 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17875,7 +17357,9 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17912,7 +17396,9 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17949,7 +17435,9 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17986,7 +17474,9 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18023,7 +17513,9 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18060,7 +17552,9 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18097,7 +17591,9 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18134,7 +17630,9 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18171,7 +17669,9 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18208,7 +17708,9 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18245,7 +17747,9 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18282,7 +17786,9 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18319,7 +17825,9 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18356,7 +17864,9 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18393,7 +17903,9 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18430,7 +17942,9 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18467,7 +17981,9 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18504,7 +18020,9 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18541,7 +18059,9 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18578,7 +18098,9 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18615,7 +18137,9 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18652,7 +18176,9 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18689,7 +18215,9 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18726,7 +18254,9 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18763,7 +18293,9 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18800,7 +18332,9 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18837,7 +18371,9 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18874,7 +18410,9 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18911,7 +18449,9 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18948,7 +18488,9 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18985,7 +18527,9 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19022,7 +18566,9 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19059,7 +18605,9 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19096,7 +18644,9 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19133,7 +18683,9 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19167,12 +18719,12 @@
         <v>2644940.073046461</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="J524" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19206,12 +18758,12 @@
         <v>2768368.861046461</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="J525" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19245,12 +18797,12 @@
         <v>2294504.088046461</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="J526" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19284,12 +18836,12 @@
         <v>2827415.437148492</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="J527" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19323,12 +18875,12 @@
         <v>3187732.740461615</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="J528" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19362,12 +18914,12 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="J529" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19401,12 +18953,12 @@
         <v>3832438.598231315</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="J530" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19440,12 +18992,12 @@
         <v>4081657.669288346</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="J531" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19479,12 +19031,12 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="J532" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19518,12 +19070,12 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="J533" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19557,12 +19109,12 @@
         <v>3892225.327938346</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="J534" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19596,12 +19148,12 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="J535" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19635,12 +19187,12 @@
         <v>4025631.85535349</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="J536" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19674,12 +19226,12 @@
         <v>3954106.150345113</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="J537" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19713,12 +19265,12 @@
         <v>3771221.743345113</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="J538" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19752,12 +19304,12 @@
         <v>4073579.589545113</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19791,12 +19343,12 @@
         <v>4072192.923245113</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="J540" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19830,12 +19382,12 @@
         <v>4043928.225445113</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="J541" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19869,12 +19421,12 @@
         <v>3914277.721645113</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="J542" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19908,12 +19460,12 @@
         <v>4303232.825645112</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19947,12 +19499,12 @@
         <v>4569434.805645112</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="J544" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19986,12 +19538,12 @@
         <v>4295214.631645112</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="J545" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20025,12 +19577,12 @@
         <v>4513925.974645113</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="J546" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20064,12 +19616,12 @@
         <v>4524907.140945112</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20103,12 +19655,12 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20142,12 +19694,12 @@
         <v>4800389.240445113</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20184,7 +19736,9 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20221,7 +19775,9 @@
         <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20258,7 +19814,9 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20295,7 +19853,9 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20332,7 +19892,9 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20369,7 +19931,9 @@
         <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20406,7 +19970,9 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20443,7 +20009,9 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20480,7 +20048,9 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20517,7 +20087,9 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20554,7 +20126,9 @@
         <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20591,7 +20165,9 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20628,7 +20204,9 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20665,7 +20243,9 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20702,7 +20282,9 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20739,7 +20321,9 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20776,7 +20360,9 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20813,7 +20399,9 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20850,7 +20438,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20887,7 +20477,9 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20924,7 +20516,9 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20961,7 +20555,9 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20998,7 +20594,9 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21035,7 +20633,9 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21072,7 +20672,9 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21109,7 +20711,9 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21146,7 +20750,9 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21183,7 +20789,9 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21220,7 +20828,9 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21257,7 +20867,9 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21294,7 +20906,9 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21331,7 +20945,9 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21368,7 +20984,9 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21405,7 +21023,9 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21442,7 +21062,9 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21479,7 +21101,9 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21516,7 +21140,9 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21553,7 +21179,9 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21590,7 +21218,9 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21627,7 +21257,9 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21664,7 +21296,9 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21701,7 +21335,9 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21738,7 +21374,9 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21775,7 +21413,9 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21812,7 +21452,9 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21849,7 +21491,9 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21886,7 +21530,9 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21923,7 +21569,9 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21960,7 +21608,9 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21997,7 +21647,9 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22034,7 +21686,9 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22071,7 +21725,9 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22108,7 +21764,9 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22145,7 +21803,9 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22182,7 +21842,9 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22219,7 +21881,9 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22256,7 +21920,9 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22293,7 +21959,9 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22330,7 +21998,9 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22367,7 +22037,9 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22404,7 +22076,9 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22441,7 +22115,9 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22478,7 +22154,9 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22515,7 +22193,9 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22552,7 +22232,9 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22589,7 +22271,9 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22626,7 +22310,9 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22663,7 +22349,9 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22700,7 +22388,9 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22737,7 +22427,9 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22774,7 +22466,9 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22811,7 +22505,9 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22848,7 +22544,9 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22885,7 +22583,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22922,7 +22622,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22959,7 +22661,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22996,7 +22700,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23033,7 +22739,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23070,7 +22778,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23107,7 +22817,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23144,7 +22856,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23181,7 +22895,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23218,7 +22934,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23255,7 +22973,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23292,7 +23012,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23329,7 +23051,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23366,7 +23090,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23403,7 +23129,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23440,7 +23168,9 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23477,7 +23207,9 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23514,7 +23246,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23551,7 +23285,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23588,7 +23324,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23625,7 +23363,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23662,7 +23402,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23699,7 +23441,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23736,7 +23480,9 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23773,7 +23519,9 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23810,7 +23558,9 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23847,7 +23597,9 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23884,7 +23636,9 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23921,7 +23675,9 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23958,7 +23714,9 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23995,7 +23753,9 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24032,7 +23792,9 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24069,7 +23831,9 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24106,7 +23870,9 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24143,7 +23909,9 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24180,7 +23948,9 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24217,7 +23987,9 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24254,7 +24026,9 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24291,7 +24065,9 @@
         <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
-      <c r="J661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24328,7 +24104,9 @@
         <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
-      <c r="J662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24365,7 +24143,9 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24402,7 +24182,9 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24439,7 +24221,9 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24476,7 +24260,9 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24513,7 +24299,9 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24550,7 +24338,9 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24587,7 +24377,9 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24624,7 +24416,9 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24661,7 +24455,9 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24698,7 +24494,9 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24735,7 +24533,9 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24772,7 +24572,9 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24809,7 +24611,9 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24846,7 +24650,9 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24883,7 +24689,9 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24920,7 +24728,9 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24957,7 +24767,9 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24994,7 +24806,9 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25031,7 +24845,9 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25068,7 +24884,9 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25105,7 +24923,9 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25142,7 +24962,9 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25179,7 +25001,9 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25216,7 +25040,9 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25253,7 +25079,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25290,7 +25118,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25327,7 +25157,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25364,7 +25196,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25401,7 +25235,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25438,7 +25274,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25475,7 +25313,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25512,7 +25352,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25549,7 +25391,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25586,7 +25430,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25623,7 +25469,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25660,7 +25508,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25697,7 +25547,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25734,7 +25586,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25771,7 +25625,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25808,7 +25664,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25845,7 +25703,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25882,7 +25742,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25919,7 +25781,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25956,7 +25820,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25993,7 +25859,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26030,7 +25898,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26067,7 +25937,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26104,7 +25976,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26141,7 +26015,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26178,7 +26054,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26215,7 +26093,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26252,7 +26132,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26289,7 +26171,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26326,7 +26210,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26363,7 +26249,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26400,7 +26288,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26437,7 +26327,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26474,7 +26366,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26511,7 +26405,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26548,7 +26444,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26585,7 +26483,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26622,7 +26522,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26659,7 +26561,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26696,7 +26600,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26733,7 +26639,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26770,7 +26678,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26807,7 +26717,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26844,7 +26756,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26881,7 +26795,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26918,7 +26834,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26955,7 +26873,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26992,7 +26912,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27029,7 +26951,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27066,7 +26990,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27103,7 +27029,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27140,7 +27068,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27177,7 +27107,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27214,7 +27146,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27251,7 +27185,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27288,7 +27224,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27325,7 +27263,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27362,7 +27302,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27399,7 +27341,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27436,7 +27380,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27473,7 +27419,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27510,7 +27458,9 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27547,7 +27497,9 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K749" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27584,7 +27536,9 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K750" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27621,7 +27575,9 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27658,7 +27614,9 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27695,7 +27653,9 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27732,7 +27692,9 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27769,7 +27731,9 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27806,7 +27770,9 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27843,7 +27809,9 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27880,7 +27848,9 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27917,7 +27887,9 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27954,7 +27926,9 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27991,7 +27965,9 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28028,7 +28004,9 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28065,7 +28043,9 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28102,7 +28082,9 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28139,7 +28121,9 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28176,7 +28160,9 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28213,7 +28199,9 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28250,7 +28238,9 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28287,7 +28277,9 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28324,7 +28316,9 @@
         <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28361,7 +28355,9 @@
         <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28398,7 +28394,9 @@
         <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28435,7 +28433,9 @@
         <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28472,7 +28472,9 @@
         <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28509,7 +28511,9 @@
         <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28546,7 +28550,9 @@
         <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28583,7 +28589,9 @@
         <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28620,7 +28628,9 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28657,7 +28667,9 @@
         <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28694,7 +28706,9 @@
         <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28731,7 +28745,9 @@
         <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28768,7 +28784,9 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28805,7 +28823,9 @@
         <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28842,7 +28862,9 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K784" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28879,7 +28901,9 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K785" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28916,7 +28940,9 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K786" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28953,7 +28979,9 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K787" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28990,7 +29018,9 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K788" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29027,7 +29057,9 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K789" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29064,7 +29096,9 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K790" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29101,7 +29135,9 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K791" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29138,7 +29174,9 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K792" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29175,7 +29213,9 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K793" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29212,7 +29252,9 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K794" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29249,7 +29291,9 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K795" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29286,7 +29330,9 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K796" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29323,7 +29369,9 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K797" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29360,7 +29408,9 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K798" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29397,7 +29447,9 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K799" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29434,7 +29486,9 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K800" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29471,7 +29525,9 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K801" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29508,7 +29564,9 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K802" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29545,7 +29603,9 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="inlineStr"/>
+      <c r="J803" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K803" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29582,7 +29642,9 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="inlineStr"/>
+      <c r="J804" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K804" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29619,7 +29681,9 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="inlineStr"/>
+      <c r="J805" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K805" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29656,7 +29720,9 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="inlineStr"/>
+      <c r="J806" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K806" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29693,7 +29759,9 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="inlineStr"/>
+      <c r="J807" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K807" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29730,7 +29798,9 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="inlineStr"/>
+      <c r="J808" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K808" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29767,7 +29837,9 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K809" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29804,7 +29876,9 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29841,7 +29915,9 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29878,7 +29954,9 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29915,7 +29993,9 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29952,7 +30032,9 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29989,7 +30071,9 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30026,7 +30110,9 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30063,7 +30149,9 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30100,7 +30188,9 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30137,7 +30227,9 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30174,7 +30266,9 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30211,7 +30305,9 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30248,7 +30344,9 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30285,7 +30383,9 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30322,7 +30422,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30359,7 +30461,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30396,7 +30500,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30433,7 +30539,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30470,7 +30578,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30507,7 +30617,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30544,7 +30656,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30581,7 +30695,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30618,7 +30734,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30655,7 +30773,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30692,7 +30812,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30729,7 +30851,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30766,7 +30890,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30803,7 +30929,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30840,7 +30968,9 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30877,7 +31007,9 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30914,7 +31046,9 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30948,12 +31082,12 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J841" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30987,12 +31121,12 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J842" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31026,12 +31160,12 @@
         <v>4608621.70569976</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J843" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31065,12 +31199,12 @@
         <v>4605262.146699759</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="J844" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31104,12 +31238,12 @@
         <v>4605282.146699759</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="J845" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31143,12 +31277,12 @@
         <v>4605302.146699759</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J846" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31182,12 +31316,12 @@
         <v>4585302.146699759</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>3.74</v>
-      </c>
-      <c r="J847" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31221,12 +31355,12 @@
         <v>4515639.292099759</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>3.67</v>
-      </c>
-      <c r="J848" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31263,7 +31397,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31297,12 +31433,12 @@
         <v>4585659.292099759</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="J850" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31339,7 +31475,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31376,7 +31514,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31413,7 +31553,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31450,7 +31592,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31487,7 +31631,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31524,7 +31670,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31561,7 +31709,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31598,7 +31748,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31632,12 +31784,12 @@
         <v>4318867.603399759</v>
       </c>
       <c r="H859" t="n">
-        <v>1</v>
-      </c>
-      <c r="I859" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="J859" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31674,7 +31826,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31711,7 +31865,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31748,7 +31904,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31785,7 +31943,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31822,7 +31982,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31859,7 +32021,9 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31896,7 +32060,9 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31933,7 +32099,9 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31970,7 +32138,9 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32009,7 +32179,9 @@
       <c r="I869" t="n">
         <v>3.52</v>
       </c>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32048,7 +32220,9 @@
       <c r="I870" t="n">
         <v>3.5</v>
       </c>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32087,7 +32261,9 @@
       <c r="I871" t="n">
         <v>3.5</v>
       </c>
-      <c r="J871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32126,7 +32302,9 @@
       <c r="I872" t="n">
         <v>3.5</v>
       </c>
-      <c r="J872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32165,7 +32343,9 @@
       <c r="I873" t="n">
         <v>3.5</v>
       </c>
-      <c r="J873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32177,6 +32357,6 @@
       <c r="M873" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>